--- a/data/case1/14/V2_5.xlsx
+++ b/data/case1/14/V2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998877368257</v>
+        <v>0.99999999608388224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99493762543740993</v>
+        <v>0.99569801225161847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97760888814659896</v>
+        <v>0.97982103997831538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97067753218821751</v>
+        <v>0.97395473675383859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96074758501744661</v>
+        <v>0.96512448509402415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93648022514619755</v>
+        <v>0.94354157742327804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93491533590492026</v>
+        <v>0.94507331865312816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93295778468839297</v>
+        <v>0.94757875945477588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93375928861080815</v>
+        <v>0.95624209583730413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93552458570664965</v>
+        <v>0.96598450838004823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93588332698419863</v>
+        <v>0.96759132210256471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93422577551753538</v>
+        <v>0.97091268993669533</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92839545989872874</v>
+        <v>0.96930582704525214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92668783756607898</v>
+        <v>0.96948730099603242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92637022772559408</v>
+        <v>0.97093611298113447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92654057516188026</v>
+        <v>0.96843000959807746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92869142000043203</v>
+        <v>0.9647224439567097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93403249358967377</v>
+        <v>0.96361353601793676</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99128487715444269</v>
+        <v>0.99315206579955706</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96120272109743565</v>
+        <v>0.97281053675899121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95278220494864752</v>
+        <v>0.97141200934153327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.93860726370438186</v>
+        <v>0.9701474933417521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97057370628525264</v>
+        <v>0.97278586323821337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95755241926822587</v>
+        <v>0.95976460710308831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95109537043095171</v>
+        <v>0.95330754200338841</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93282435050456058</v>
+        <v>0.93905734997571599</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92797719960339675</v>
+        <v>0.93305694582520027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90650239737801941</v>
+        <v>0.91158342355083455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89123053981031908</v>
+        <v>0.89631169094221208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88466012832623075</v>
+        <v>0.88974117182931045</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87700653714491839</v>
+        <v>0.88208719062437613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87532728080354694</v>
+        <v>0.88040783696719271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8748072916071975</v>
+        <v>0.87988782562296142</v>
       </c>
     </row>
   </sheetData>
